--- a/DeliveryTemplateOrg.xlsx
+++ b/DeliveryTemplateOrg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\quixx-restart-unmini\03-sep-redesign\Quixx-SPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641E761-B3EC-41CF-824A-1B51998B6782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F1AAE-2FE7-4F4A-8341-B9A3E86CDC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Receiver_Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>01900000000</t>
   </si>
   <si>
-    <t>Uttara</t>
-  </si>
-  <si>
     <t>Uttara, Sector 4, Dhaka</t>
   </si>
   <si>
@@ -90,10 +87,43 @@
     <t>Sender_ID</t>
   </si>
   <si>
-    <t>Delivery_Charge</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Auto_Assign_Delivery</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Khilgaon</t>
+  </si>
+  <si>
+    <t>Adabor</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Chocolates2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Cash on Delivery</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bring Carefully2!</t>
+  </si>
+  <si>
+    <t>Sanjida</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
 </sst>
 </file>
@@ -450,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -500,17 +530,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -521,43 +553,67 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1067,7 +1123,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I2:J2" numberStoredAsText="1"/>
+    <ignoredError sqref="I2:I3 A2:A3 C2:C3 H3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DeliveryTemplateOrg.xlsx
+++ b/DeliveryTemplateOrg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\quixx-restart-unmini\03-sep-redesign\Quixx-SPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F1AAE-2FE7-4F4A-8341-B9A3E86CDC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387A981-4B3D-48A1-9276-312DAD4335FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Auto_Assign_Delivery</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Khilgaon</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Cash on Delivery</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Bring Carefully2!</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
@@ -582,7 +582,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -591,28 +591,28 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/DeliveryTemplateOrg.xlsx
+++ b/DeliveryTemplateOrg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\quixx-restart-unmini\03-sep-redesign\Quixx-SPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387A981-4B3D-48A1-9276-312DAD4335FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF429A5-7127-4B25-BADC-8CC84D0C443B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
